--- a/Backend/archivoEstadios.xlsx
+++ b/Backend/archivoEstadios.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
-    <t xml:space="preserve">País</t>
+    <t xml:space="preserve">Pais</t>
   </si>
   <si>
     <t xml:space="preserve">Nombre</t>
@@ -87,6 +87,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -146,8 +147,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -179,88 +184,88 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>4606</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>16000</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>18556</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>11000</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>25387</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>15000</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Backend/archivoEstadios.xlsx
+++ b/Backend/archivoEstadios.xlsx
@@ -184,7 +184,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Backend/archivoEstadios.xlsx
+++ b/Backend/archivoEstadios.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t xml:space="preserve">Pais</t>
   </si>
@@ -71,6 +71,21 @@
   </si>
   <si>
     <t xml:space="preserve">No tan chidory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cementos Progreso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zona 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trebol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zona 7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estadio del Ejercito</t>
   </si>
 </sst>
 </file>
@@ -82,7 +97,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -103,6 +118,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,7 +167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -161,6 +181,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -181,13 +205,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.03"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -268,6 +296,72 @@
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>29443</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>22138</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>26521</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
